--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfaithfu\Github Repos\lmm_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE196E4-B0D0-4E67-9392-2F939F9BA8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A08D11F-D24E-4442-9E0F-40699354867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>Sub-task</t>
   </si>
@@ -62,12 +62,6 @@
     <t>General Objects</t>
   </si>
   <si>
-    <t>RF100</t>
-  </si>
-  <si>
-    <t>MS COCO</t>
-  </si>
-  <si>
     <t>Satellite Images</t>
   </si>
   <si>
@@ -95,9 +89,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Images / Video from UAVs, with data on altitude and 3 object views (front, side, birds-eye)</t>
-  </si>
-  <si>
     <t>LLVIP</t>
   </si>
   <si>
@@ -210,13 +201,169 @@
   </si>
   <si>
     <t>Human ratings for machine-generated captions</t>
+  </si>
+  <si>
+    <t>MS COCO (Microsoft Common Objects in Context)</t>
+  </si>
+  <si>
+    <t>RF100 (Roboflow 100)</t>
+  </si>
+  <si>
+    <t>https://github.com/roboflow/roboflow-100-benchmark</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/coco</t>
+  </si>
+  <si>
+    <t>Large-scale object detection, segmentation, key-point detection, and captioning dataset</t>
+  </si>
+  <si>
+    <t> 7 categories: Aerial, Videogames, Microscopic, Underwater, Documents, Electromagnetic and Real World</t>
+  </si>
+  <si>
+    <t>81 different military aircraft types</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/a2015003713/militaryaircraftdetectiondataset</t>
+  </si>
+  <si>
+    <t>9 classes for detection: Automatic Rifle, Bazooka, Handgun, Knife, Grenade Launcher, Shotgun, SMG, Sniper, Sword</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/snehilsanyal/weapon-detection-test/data</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Bounding boxes</t>
+  </si>
+  <si>
+    <t>20000 (I think)</t>
+  </si>
+  <si>
+    <t>Vehicle detection (e.g.  cars, trucks, ships, and airplanes) from satellite images</t>
+  </si>
+  <si>
+    <t>No (I think)</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/kailaspsudheer/tiny-object-detection</t>
+  </si>
+  <si>
+    <t>80, 000 representative frames from 10 hours raw videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Video / Frames from UAVs, with data on altitude and 3 object views (front, side, birds-eye)</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/uavdt</t>
+  </si>
+  <si>
+    <t>bounding boxes, per-instance segmentation masks</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/llvip</t>
+  </si>
+  <si>
+    <t>30976 images (15488 pairs)</t>
+  </si>
+  <si>
+    <t>https://github.com/princetonvisualai/pointingqa</t>
+  </si>
+  <si>
+    <t>57,405 questions across 34,676 images</t>
+  </si>
+  <si>
+    <t>Answer, Points</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/howmany-qa</t>
+  </si>
+  <si>
+    <t>Complex questions (e.g. "how many dogs are sitting down")</t>
+  </si>
+  <si>
+    <t>32,716 unique annotated cars. 58,247 unique negative examples.</t>
+  </si>
+  <si>
+    <t>https://gdo152.llnl.gov/cowc/</t>
+  </si>
+  <si>
+    <t> over 20,000 images and 470,000 human instances</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/crowdhuman</t>
+  </si>
+  <si>
+    <t>Answer,  head bounding-box, human visible-region bounding-box and human full-body bounding-box</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/paper/textocr-towards-large-scale-end-to-end</t>
+  </si>
+  <si>
+    <t>28,000 images, 900k annotated words</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/ocr-idl</t>
+  </si>
+  <si>
+    <t>OCR annotations for 26 Millions pages</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/iam</t>
+  </si>
+  <si>
+    <t> 13,353 images</t>
+  </si>
+  <si>
+    <t>105941 images</t>
+  </si>
+  <si>
+    <t>Text, line-level quadrilateral bounding box annotation</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/105941-images-natural-scenes-ocr-data-of-12</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/logo-2k</t>
+  </si>
+  <si>
+    <t> 10 root categories and 2,341 leaf categories. The 10 different root categories are: Food, Clothes, Institution, Accessories, Transportation, Electronic, Necessities, Cosmetic, Leisure and Medical.</t>
+  </si>
+  <si>
+    <t>Logo-2K+</t>
+  </si>
+  <si>
+    <t>167,140 images</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/novic-caption-object-data</t>
+  </si>
+  <si>
+    <t>1.8M LLM-generated and templated captions</t>
+  </si>
+  <si>
+    <t> 131K human judgements</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/yuwd/Polaris</t>
+  </si>
+  <si>
+    <t>https://github.com/google-research-datasets/Image-Caption-Quality-Dataset</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +371,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,8 +399,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -299,13 +466,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,8 +543,39 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -673,356 +908,514 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4890A2D0-AED8-465A-BAEE-48012F900F37}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F30" activeCellId="1" sqref="D24 F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.90625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.08984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44" style="11" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.90625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.36328125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="44" style="10" customWidth="1"/>
+    <col min="6" max="6" width="47.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.90625" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="12">
+        <v>224714</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="12">
+        <v>328000</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3">
+        <v>714</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="12">
+        <v>47542</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="D23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="F23" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4" t="s">
+      <c r="D24" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="1"/>
+      <c r="F24" s="12">
+        <v>30000</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A23"/>
+  <mergeCells count="9">
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A21:G21"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{DDA7AF57-AE7E-4961-8426-64061FA40E2F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfaithfu\Github Repos\lmm_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A08D11F-D24E-4442-9E0F-40699354867B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C00BB8-6116-41F3-A41D-4225261C5D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
   <si>
     <t>Sub-task</t>
   </si>
@@ -266,9 +266,6 @@
     <t>https://paperswithcode.com/dataset/llvip</t>
   </si>
   <si>
-    <t>30976 images (15488 pairs)</t>
-  </si>
-  <si>
     <t>https://github.com/princetonvisualai/pointingqa</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
     <t> 13,353 images</t>
   </si>
   <si>
-    <t>105941 images</t>
-  </si>
-  <si>
     <t>Text, line-level quadrilateral bounding box annotation</t>
   </si>
   <si>
@@ -357,6 +351,49 @@
   </si>
   <si>
     <t>https://github.com/google-research-datasets/Image-Caption-Quality-Dataset</t>
+  </si>
+  <si>
+    <t>ChineseTextInTheWild</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/chinese-text-in-the-wild</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>105,941 images</t>
+  </si>
+  <si>
+    <t>30,000 images</t>
+  </si>
+  <si>
+    <t>30,976 images (15,488 pairs)</t>
+  </si>
+  <si>
+    <t>Text, Bounding box</t>
+  </si>
+  <si>
+    <t>FUNSD</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/funsd</t>
+  </si>
+  <si>
+    <t>199 real, fully annotated, scanned forms
+Noisy and varied in appearance</t>
+  </si>
+  <si>
+    <t>199 forms</t>
+  </si>
+  <si>
+    <t>MS COCO Captions</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/coco-captions</t>
+  </si>
+  <si>
+    <t>330,000 images, 5 captions per image</t>
   </si>
 </sst>
 </file>
@@ -908,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4890A2D0-AED8-465A-BAEE-48012F900F37}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F30" activeCellId="1" sqref="D24 F30"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,7 +956,7 @@
     <col min="1" max="1" width="31" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.36328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="70.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" style="10" customWidth="1"/>
     <col min="6" max="6" width="47.1796875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.90625" style="6" customWidth="1"/>
@@ -1090,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>66</v>
@@ -1113,16 +1150,16 @@
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>99</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>69</v>
@@ -1148,16 +1185,16 @@
         <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1167,16 +1204,16 @@
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1186,16 +1223,16 @@
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1207,16 +1244,16 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>82</v>
       </c>
       <c r="F15" s="12">
         <v>47542</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1239,174 +1276,240 @@
         <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="G20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="D24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="12">
-        <v>30000</v>
-      </c>
-      <c r="G24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="B25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="12">
+        <v>30000</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A22:A26"/>
+  <mergeCells count="12">
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A24:A29"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A12:A15"/>

--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfaithfu\Github Repos\lmm_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C00BB8-6116-41F3-A41D-4225261C5D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C8ECD1-6A55-409E-A139-F49FC8B12A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
   </bookViews>
@@ -188,15 +188,6 @@
     <t xml:space="preserve"> LLM-generated captions</t>
   </si>
   <si>
-    <t>LLM-generated</t>
-  </si>
-  <si>
-    <t>Human-generated</t>
-  </si>
-  <si>
-    <t>Non data</t>
-  </si>
-  <si>
     <t>Google's Quality Estimation for Image Captions</t>
   </si>
   <si>
@@ -394,6 +385,15 @@
   </si>
   <si>
     <t>330,000 images, 5 captions per image</t>
+  </si>
+  <si>
+    <t>LLM-generated Caption Reference</t>
+  </si>
+  <si>
+    <t>Human-generated Caption Reference</t>
+  </si>
+  <si>
+    <t>Human ratings</t>
   </si>
 </sst>
 </file>
@@ -947,14 +947,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4890A2D0-AED8-465A-BAEE-48012F900F37}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.90625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" style="10" customWidth="1"/>
@@ -994,38 +994,38 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="F2" s="12">
         <v>224714</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" s="12">
         <v>328000</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -1037,16 +1037,16 @@
         <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="3">
         <v>714</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1058,16 +1058,16 @@
         <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1079,16 +1079,16 @@
         <v>9</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F6" s="3">
         <v>3000</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1100,16 +1100,16 @@
         <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1121,16 +1121,16 @@
         <v>17</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1150,19 +1150,19 @@
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>99</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1185,16 +1185,16 @@
         <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1204,16 +1204,16 @@
         <v>26</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1223,16 +1223,16 @@
         <v>29</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -1244,16 +1244,16 @@
         <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="12">
         <v>47542</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -1276,16 +1276,16 @@
         <v>31</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>34</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1297,35 +1297,35 @@
         <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1337,16 +1337,16 @@
         <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1355,19 +1355,19 @@
         <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -1377,16 +1377,16 @@
         <v>41</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1403,43 +1403,43 @@
         <v>6</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1449,37 +1449,37 @@
         <v>47</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F27" s="12">
         <v>30000</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">

--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfaithfu\Github Repos\lmm_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C8ECD1-6A55-409E-A139-F49FC8B12A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EFC405-4C31-4C80-8D78-FA0E6FCD26F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
   <si>
     <t>Sub-task</t>
   </si>
@@ -394,6 +394,15 @@
   </si>
   <si>
     <t>Human ratings</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/adityajn105/flickr8k</t>
+  </si>
+  <si>
+    <t>Flickr8k</t>
+  </si>
+  <si>
+    <t>Popular caption benchmark</t>
   </si>
 </sst>
 </file>
@@ -550,65 +559,65 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -947,20 +956,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4890A2D0-AED8-465A-BAEE-48012F900F37}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.90625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44" style="10" customWidth="1"/>
-    <col min="6" max="6" width="47.1796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.90625" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="31" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44" style="6" customWidth="1"/>
+    <col min="6" max="6" width="47.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.90625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -976,532 +985,542 @@
       <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="8">
         <v>224714</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>328000</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>714</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>3000</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="21"/>
+      <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="5" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="7"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="8">
         <v>47542</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="8">
         <v>30000</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A17:A22"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A11:G11"/>
@@ -1510,15 +1529,14 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{DDA7AF57-AE7E-4961-8426-64061FA40E2F}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{29F99CE7-70DF-4C97-9199-7CE2A91B4C82}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{8D145BC2-CD21-4F79-B9C8-EAB12BC72735}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{CF172E53-D51B-43F0-A8E3-4766B4BACC52}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfaithfu\Github Repos\lmm_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EFC405-4C31-4C80-8D78-FA0E6FCD26F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77990E9-080A-4B2E-A73B-D6B9DEC4B846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
   </bookViews>
@@ -598,6 +598,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,9 +617,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4890A2D0-AED8-465A-BAEE-48012F900F37}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -996,10 +996,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1019,8 +1019,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1038,7 +1038,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1059,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1080,7 +1080,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1101,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1122,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1175,19 +1175,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1207,8 +1207,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1226,8 +1226,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1266,16 +1266,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1284,7 +1284,7 @@
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="12" t="s">
         <v>84</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1298,8 +1298,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="17"/>
+      <c r="B18" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1319,8 +1319,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
         <v>109</v>
       </c>
@@ -1338,14 +1338,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="12" t="s">
         <v>89</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1359,8 +1359,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="17"/>
+      <c r="B21" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1380,12 +1380,12 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="12" t="s">
         <v>92</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1399,16 +1399,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1431,8 +1431,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="16" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1452,8 +1452,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1471,7 +1471,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2" t="s">
         <v>118</v>
       </c>
@@ -1492,7 +1492,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>120</v>
@@ -1507,7 +1507,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1517,11 +1517,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
@@ -1529,14 +1524,22 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{DDA7AF57-AE7E-4961-8426-64061FA40E2F}"/>
     <hyperlink ref="D14" r:id="rId2" xr:uid="{29F99CE7-70DF-4C97-9199-7CE2A91B4C82}"/>
     <hyperlink ref="D13" r:id="rId3" xr:uid="{8D145BC2-CD21-4F79-B9C8-EAB12BC72735}"/>
     <hyperlink ref="D12" r:id="rId4" xr:uid="{CF172E53-D51B-43F0-A8E3-4766B4BACC52}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{5CB43DB8-608B-47ED-BA8A-282099AC8ADD}"/>
+    <hyperlink ref="D22" r:id="rId6" xr:uid="{771A17FB-3A0D-45AA-A588-E883C410137D}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{3F5030E3-CB0C-43D0-AD8F-0AB11EEE2C18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfaithfu\Github Repos\lmm_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77990E9-080A-4B2E-A73B-D6B9DEC4B846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8645C36-6E1D-410A-A755-67747636C88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
   </bookViews>
@@ -381,9 +381,6 @@
     <t>MS COCO Captions</t>
   </si>
   <si>
-    <t>https://paperswithcode.com/dataset/coco-captions</t>
-  </si>
-  <si>
     <t>330,000 images, 5 captions per image</t>
   </si>
   <si>
@@ -403,6 +400,10 @@
   </si>
   <si>
     <t>Popular caption benchmark</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/coco-captions
+https://huggingface.co/datasets/ChristophSchuhmann/MS_COCO_2017_URL_TEXT</t>
   </si>
 </sst>
 </file>
@@ -598,9 +599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,6 +615,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -956,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4890A2D0-AED8-465A-BAEE-48012F900F37}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -996,10 +997,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1019,8 +1020,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1038,7 +1039,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1059,7 +1060,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1080,7 +1081,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1101,7 +1102,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1122,7 +1123,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1143,7 +1144,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1154,7 +1155,7 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1175,19 +1176,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1207,8 +1208,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1226,8 +1227,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="15"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1245,7 +1246,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1266,16 +1267,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1298,8 +1299,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="17"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1319,8 +1320,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="2" t="s">
         <v>109</v>
       </c>
@@ -1338,7 +1339,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1359,8 +1360,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="15" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1380,8 +1381,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1399,20 +1400,20 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="21"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>46</v>
@@ -1430,30 +1431,30 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
-      <c r="B25" s="16" t="s">
-        <v>117</v>
+    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="16"/>
+      <c r="B25" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>114</v>
+      <c r="D25" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1471,9 +1472,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>50</v>
@@ -1492,22 +1493,22 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>121</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="18"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1517,6 +1518,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
@@ -1524,11 +1530,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{DDA7AF57-AE7E-4961-8426-64061FA40E2F}"/>

--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfaithfu\Github Repos\lmm_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8645C36-6E1D-410A-A755-67747636C88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BF09B-A1F0-43B7-973D-298AAC5D04EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="Datasets" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
   <si>
     <t>Sub-task</t>
   </si>
@@ -404,6 +405,27 @@
   <si>
     <t>https://paperswithcode.com/dataset/coco-captions
 https://huggingface.co/datasets/ChristophSchuhmann/MS_COCO_2017_URL_TEXT</t>
+  </si>
+  <si>
+    <t>OCR  + Understanding</t>
+  </si>
+  <si>
+    <t>OCR VQA</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/ocr-vqa</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/dataset/textocr</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>TallyQA</t>
+  </si>
+  <si>
+    <t>https://paperswithcode.com/paper/tallyqa-answering-complex-counting-questions</t>
   </si>
 </sst>
 </file>
@@ -555,7 +577,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -593,31 +615,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4890A2D0-AED8-465A-BAEE-48012F900F37}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="D11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,10 +1040,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1020,8 +1063,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1039,14 +1082,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="21"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="12" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -1060,14 +1103,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="21"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="21" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1081,7 +1124,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1102,7 +1145,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1123,7 +1166,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1144,7 +1187,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1155,20 +1198,20 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -1185,7 +1228,7 @@
       <c r="G11" s="20"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -1208,7 +1251,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="16"/>
       <c r="C13" s="2" t="s">
         <v>26</v>
@@ -1227,7 +1270,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
@@ -1246,14 +1289,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="12" t="s">
         <v>77</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1518,11 +1561,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
@@ -1530,6 +1568,11 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{DDA7AF57-AE7E-4961-8426-64061FA40E2F}"/>
@@ -1539,8 +1582,298 @@
     <hyperlink ref="D17" r:id="rId5" xr:uid="{5CB43DB8-608B-47ED-BA8A-282099AC8ADD}"/>
     <hyperlink ref="D22" r:id="rId6" xr:uid="{771A17FB-3A0D-45AA-A588-E883C410137D}"/>
     <hyperlink ref="D20" r:id="rId7" xr:uid="{3F5030E3-CB0C-43D0-AD8F-0AB11EEE2C18}"/>
+    <hyperlink ref="D5" r:id="rId8" xr:uid="{BD15A69E-80BE-4D9D-B544-FCFA0F129DEE}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{BD09EABD-1EC2-414C-86B0-A6453F89CD5A}"/>
+    <hyperlink ref="D15" r:id="rId10" xr:uid="{D93030C4-9931-447E-84CB-B3B393FE2D10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22355B5-4D3F-4E0F-B92C-96C58E39C4EA}">
+  <dimension ref="A1:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.54296875" customWidth="1"/>
+    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="14"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="14"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="14"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="14"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="14"/>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="16"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="16"/>
+      <c r="B22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:G13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfaithfu\Github Repos\lmm_benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phi\GitHub Repos\lmm_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BF09B-A1F0-43B7-973D-298AAC5D04EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D927D1BE-8F70-4D8F-B1C3-495723F27461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Requirements" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
   <si>
     <t>Sub-task</t>
   </si>
@@ -413,19 +413,38 @@
     <t>OCR VQA</t>
   </si>
   <si>
-    <t>https://paperswithcode.com/dataset/ocr-vqa</t>
-  </si>
-  <si>
     <t>https://paperswithcode.com/dataset/textocr</t>
   </si>
   <si>
-    <t>Numbers</t>
-  </si>
-  <si>
-    <t>TallyQA</t>
-  </si>
-  <si>
     <t>https://paperswithcode.com/paper/tallyqa-answering-complex-counting-questions</t>
+  </si>
+  <si>
+    <t>Image + Single Reference</t>
+  </si>
+  <si>
+    <t>Weapon Detection</t>
+  </si>
+  <si>
+    <t>Related Research Link</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/publication/388640689_Weapon_Detection_in_Surveillance_Videos_Using_Human_Inspired_Particle_Swarm_Optimization_Algorithm_and_Support_Vector_Machine</t>
+  </si>
+  <si>
+    <t>TallyQA (simple)</t>
+  </si>
+  <si>
+    <t>TallyQA (complex)</t>
+  </si>
+  <si>
+    <t>OCR
+(Optical Character Recognition)</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2305.07895</t>
+  </si>
+  <si>
+    <t>OCRBench (Chinese)</t>
   </si>
 </sst>
 </file>
@@ -577,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,6 +637,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,29 +667,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1000,23 +1007,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4890A2D0-AED8-465A-BAEE-48012F900F37}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" style="6" customWidth="1"/>
-    <col min="6" max="6" width="47.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="45.90625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="3"/>
+    <col min="6" max="6" width="47.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,11 +1046,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1062,9 +1069,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1081,8 +1088,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1102,15 +1109,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="14" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1123,8 +1130,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1144,8 +1151,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1165,8 +1172,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1186,8 +1193,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1197,8 +1204,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1218,20 +1225,20 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1250,9 +1257,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1269,9 +1276,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17"/>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1288,8 +1295,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1309,17 +1316,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1341,9 +1348,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="16"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1362,9 +1369,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2" t="s">
         <v>109</v>
       </c>
@@ -1381,8 +1388,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1402,9 +1409,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="15" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1423,9 +1430,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1442,17 +1449,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1474,9 +1481,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="16"/>
-      <c r="B25" s="15" t="s">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1495,9 +1502,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1514,8 +1521,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>117</v>
       </c>
@@ -1535,8 +1542,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="16"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>119</v>
@@ -1550,8 +1557,8 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1595,22 +1602,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22355B5-4D3F-4E0F-B92C-96C58E39C4EA}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.54296875" customWidth="1"/>
-    <col min="6" max="6" width="53.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="175.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1628,7 @@
         <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>16</v>
@@ -1633,129 +1640,142 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="14"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="14"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="14"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="22"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="8">
+        <v>26451</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="5">
+        <v>8040</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
-        <v>5</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>132</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>36</v>
@@ -1764,40 +1784,44 @@
         <v>31</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
       <c r="B15" s="13" t="s">
         <v>122</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>124</v>
+      <c r="D15" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>133</v>
+      </c>
       <c r="E16" s="5"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
       <c r="B17" s="13"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1805,34 +1829,34 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>120</v>
-      </c>
+      <c r="E19" s="5"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
       <c r="B20" s="13"/>
       <c r="C20" s="2"/>
       <c r="D20" s="5"/>
@@ -1840,8 +1864,8 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1849,14 +1873,14 @@
       <c r="F21" s="8"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
       <c r="B22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1874,6 +1898,9 @@
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:G13"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{AFA8BE4C-6557-4913-A593-133143235A2B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phi\GitHub Repos\lmm_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D927D1BE-8F70-4D8F-B1C3-495723F27461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB9838F-384A-4C3C-AABB-02DE5969E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
   </bookViews>
@@ -646,9 +646,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,6 +662,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1047,10 +1047,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1070,8 +1070,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1089,7 +1089,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1110,7 +1110,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1131,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1152,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1173,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1205,7 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1226,19 +1226,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1258,8 +1258,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1277,8 +1277,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1296,7 +1296,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1317,16 +1317,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1349,8 +1349,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1370,8 +1370,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="2" t="s">
         <v>109</v>
       </c>
@@ -1389,7 +1389,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1410,8 +1410,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1431,8 +1431,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1450,16 +1450,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1482,8 +1482,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1503,8 +1503,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1522,7 +1522,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2" t="s">
         <v>117</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>119</v>
@@ -1558,7 +1558,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1568,6 +1568,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
@@ -1575,11 +1580,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{DDA7AF57-AE7E-4961-8426-64061FA40E2F}"/>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:G18"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,7 +1641,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1658,7 +1658,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="15"/>
@@ -1667,7 +1667,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="16"/>
@@ -1676,7 +1676,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="15"/>
@@ -1685,7 +1685,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1694,7 +1694,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1703,7 +1703,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1712,7 +1712,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
@@ -1721,16 +1721,16 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1749,7 +1749,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1765,13 +1765,13 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
@@ -1791,7 +1791,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="13" t="s">
         <v>122</v>
       </c>
@@ -1806,7 +1806,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="2" t="s">
         <v>104</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1830,16 +1830,16 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1856,7 +1856,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="13"/>
       <c r="C20" s="2"/>
       <c r="D20" s="5"/>
@@ -1865,7 +1865,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1874,13 +1874,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>

--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phi\GitHub Repos\lmm_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB9838F-384A-4C3C-AABB-02DE5969E6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D508D8-5448-4E0D-8242-429CECCAC194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="138">
   <si>
     <t>Sub-task</t>
   </si>
@@ -445,6 +445,15 @@
   </si>
   <si>
     <t>OCRBench (Chinese)</t>
+  </si>
+  <si>
+    <t>Drones</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/9205392</t>
+  </si>
+  <si>
+    <t>Drone Detection</t>
   </si>
 </sst>
 </file>
@@ -646,6 +655,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,9 +674,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1008,7 +1017,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,10 +1056,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1070,8 +1079,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1089,7 +1098,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1110,7 +1119,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1140,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1152,7 +1161,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1173,7 +1182,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1194,7 +1203,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1214,7 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1226,19 +1235,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1258,8 +1267,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1277,8 +1286,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1296,7 +1305,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1317,16 +1326,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1349,8 +1358,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1370,8 +1379,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="2" t="s">
         <v>109</v>
       </c>
@@ -1389,7 +1398,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1410,8 +1419,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="18" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1431,8 +1440,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1450,16 +1459,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1482,8 +1491,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1503,8 +1512,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1522,7 +1531,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="2" t="s">
         <v>117</v>
       </c>
@@ -1543,7 +1552,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>119</v>
@@ -1558,7 +1567,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1568,11 +1577,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
@@ -1580,6 +1584,11 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{DDA7AF57-AE7E-4961-8426-64061FA40E2F}"/>
@@ -1603,7 +1612,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,7 +1650,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1658,16 +1667,22 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>136</v>
+      </c>
       <c r="E3" s="5"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="16"/>
@@ -1676,7 +1691,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="15"/>
@@ -1685,7 +1700,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1694,7 +1709,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1703,7 +1718,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1712,7 +1727,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
@@ -1721,16 +1736,16 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1749,7 +1764,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1765,13 +1780,13 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
@@ -1791,7 +1806,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="13" t="s">
         <v>122</v>
       </c>
@@ -1806,7 +1821,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
         <v>104</v>
       </c>
@@ -1821,7 +1836,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="13"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1830,16 +1845,16 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1856,7 +1871,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="13"/>
       <c r="C20" s="2"/>
       <c r="D20" s="5"/>
@@ -1865,7 +1880,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1874,13 +1889,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>

--- a/Datasets.xlsx
+++ b/Datasets.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phi\GitHub Repos\lmm_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D508D8-5448-4E0D-8242-429CECCAC194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F438AB-4E7F-4A59-BB18-1BEE033E30AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{45FBCF12-202C-4FD7-8B72-3E64ACF103AF}"/>
   </bookViews>
@@ -655,9 +655,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -674,6 +671,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1056,10 +1056,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="23" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1079,8 +1079,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
@@ -1098,7 +1098,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1119,7 +1119,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1140,7 +1140,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1161,7 +1161,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1182,7 +1182,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
@@ -1235,19 +1235,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1267,8 +1267,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
@@ -1286,8 +1286,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
@@ -1305,7 +1305,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
@@ -1326,16 +1326,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1358,8 +1358,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="17" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1379,8 +1379,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="2" t="s">
         <v>109</v>
       </c>
@@ -1398,7 +1398,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1419,8 +1419,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1440,8 +1440,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1459,16 +1459,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1491,8 +1491,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="17" t="s">
         <v>116</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1512,8 +1512,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="2" t="s">
         <v>117</v>
       </c>
@@ -1552,7 +1552,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>119</v>
@@ -1567,7 +1567,7 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1577,6 +1577,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A17:A22"/>
     <mergeCell ref="A24:A29"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
@@ -1584,11 +1589,6 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A17:A22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D6" r:id="rId1" xr:uid="{DDA7AF57-AE7E-4961-8426-64061FA40E2F}"/>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,7 +1650,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1667,7 +1667,7 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>135</v>
       </c>
@@ -1682,7 +1682,7 @@
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="16"/>
@@ -1691,7 +1691,7 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="15"/>
@@ -1700,7 +1700,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1709,7 +1709,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1718,7 +1718,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1727,7 +1727,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
@@ -1736,16 +1736,16 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -1764,7 +1764,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1780,13 +1780,13 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
@@ -1806,7 +1806,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="13" t="s">
         <v>122</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="2" t="s">
         <v>104</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="13"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1845,16 +1845,16 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1871,7 +1871,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="13"/>
       <c r="C20" s="2"/>
       <c r="D20" s="5"/>
@@ -1880,7 +1880,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1889,13 +1889,13 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1915,6 +1915,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D15" r:id="rId1" xr:uid="{AFA8BE4C-6557-4913-A593-133143235A2B}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{E96CED63-BB1B-42F9-AF09-06904BD099AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
